--- a/examples/xlsx-graph/activities-sorted.xlsx
+++ b/examples/xlsx-graph/activities-sorted.xlsx
@@ -514,10 +514,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>45306.82680545565</v>
+        <v>45307.4972316019</v>
       </c>
       <c r="E2" s="1">
-        <v>45308.32680545565</v>
+        <v>45308.9972316019</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -540,10 +540,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>45308.32680545565</v>
+        <v>45308.9972316019</v>
       </c>
       <c r="E3" s="1">
-        <v>45308.57680545565</v>
+        <v>45309.2472316019</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -566,10 +566,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>45308.32680545565</v>
+        <v>45308.9972316019</v>
       </c>
       <c r="E4" s="1">
-        <v>45308.34069434454</v>
+        <v>45309.01112049079</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -592,10 +592,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>45308.32680545565</v>
+        <v>45308.9972316019</v>
       </c>
       <c r="E5" s="1">
-        <v>45308.33722212231</v>
+        <v>45309.00764826856</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -618,10 +618,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>45308.34069434454</v>
+        <v>45309.01112049079</v>
       </c>
       <c r="E6" s="1">
-        <v>45308.347638788975</v>
+        <v>45309.01806493523</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -644,10 +644,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>45308.57680545565</v>
+        <v>45309.2472316019</v>
       </c>
       <c r="E7" s="1">
-        <v>45308.580277677866</v>
+        <v>45309.250703824124</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
